--- a/docs/python测试开发课程实战—商业实战课程规划V1.6.xlsx
+++ b/docs/python测试开发课程实战—商业实战课程规划V1.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyPython\Nahsor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{079530E6-2C8C-4ED7-9E78-34933A2BECE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:520000_{DFEA4438-576B-42D4-AEE8-63BDCCD7B29F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="1455" windowWidth="28200" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1368,16 +1368,7 @@
       <t>ke</t>
     </rPh>
     <rPh sb="94" eb="95">
-      <t>zhang wo</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>kuang jiakezhang woping taida jiance shiren yuanchan chukai facheng guoweizi dong huace shijiqian hou duanfen lizuo chugong xiankezhang wodengkai fakuang jiakezhang wochi xu ji chenggong jushu juqu dongdeli nianyucao zuodengduo geji shu dian</t>
+      <t>zhang wodengce shikuang jiakezhang woping taida jiance shiren yuanchan chukai facheng guoweizi dong huace shijiqian hou duanfen lizuo chugong xiankezhang wodengkai fakuang jiakezhang wochi xu ji chenggong jushu juqu dongdeli nianyucao zuodengduo geji shu dian</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2403,24 +2394,195 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2433,9 +2595,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2454,232 +2613,73 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2690,15 +2690,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3839,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV260"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3855,139 +3846,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="158"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="162"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="164" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="169" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -4007,10 +3998,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="154">
+      <c r="A17" s="138">
         <v>1</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="124" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -4024,8 +4015,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
-      <c r="B18" s="137"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
@@ -4037,8 +4028,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="104"/>
-      <c r="B19" s="137"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="124"/>
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
@@ -4050,8 +4041,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="104"/>
-      <c r="B20" s="137"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
@@ -4063,10 +4054,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="136">
+      <c r="A21" s="123">
         <v>2</v>
       </c>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="124" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -4080,8 +4071,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="9" t="s">
         <v>33</v>
       </c>
@@ -4093,8 +4084,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="136"/>
-      <c r="B23" s="137"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="9" t="s">
         <v>34</v>
       </c>
@@ -4106,10 +4097,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127">
+      <c r="A24" s="140">
         <v>3</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="142" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -4123,8 +4114,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="126"/>
-      <c r="B25" s="133"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="9" t="s">
         <v>35</v>
       </c>
@@ -4136,10 +4127,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="131">
+      <c r="A26" s="148">
         <v>4</v>
       </c>
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="147" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="57" t="s">
@@ -4153,8 +4144,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="131"/>
-      <c r="B27" s="135"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="57" t="s">
         <v>39</v>
       </c>
@@ -4166,8 +4157,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="131"/>
-      <c r="B28" s="135"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="49" t="s">
         <v>40</v>
       </c>
@@ -4179,8 +4170,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="131"/>
-      <c r="B29" s="135"/>
+      <c r="A29" s="148"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="51" t="s">
         <v>46</v>
       </c>
@@ -4192,8 +4183,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="131"/>
-      <c r="B30" s="135"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="51" t="s">
         <v>41</v>
       </c>
@@ -4205,10 +4196,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134">
+      <c r="A31" s="144">
         <v>5</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="145" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="53" t="s">
@@ -4222,8 +4213,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="134"/>
-      <c r="B32" s="129"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="69" t="s">
         <v>44</v>
       </c>
@@ -4235,8 +4226,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="134"/>
-      <c r="B33" s="129"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="69" t="s">
         <v>45</v>
       </c>
@@ -4248,10 +4239,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="122">
+      <c r="A34" s="152">
         <v>6</v>
       </c>
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="155" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="68" t="s">
@@ -4265,8 +4256,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="122"/>
-      <c r="B35" s="124"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="156"/>
       <c r="C35" s="47" t="s">
         <v>49</v>
       </c>
@@ -4278,8 +4269,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
-      <c r="B36" s="124"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="156"/>
       <c r="C36" s="49" t="s">
         <v>50</v>
       </c>
@@ -4291,8 +4282,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="102"/>
-      <c r="B37" s="124"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="156"/>
       <c r="C37" s="61" t="s">
         <v>51</v>
       </c>
@@ -4304,10 +4295,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="127">
+      <c r="A38" s="140">
         <v>7</v>
       </c>
-      <c r="B38" s="125" t="s">
+      <c r="B38" s="157" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -4321,8 +4312,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="126"/>
-      <c r="B39" s="125"/>
+      <c r="A39" s="141"/>
+      <c r="B39" s="157"/>
       <c r="C39" s="14" t="s">
         <v>54</v>
       </c>
@@ -4334,8 +4325,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="128"/>
-      <c r="B40" s="125"/>
+      <c r="A40" s="158"/>
+      <c r="B40" s="157"/>
       <c r="C40" s="14" t="s">
         <v>55</v>
       </c>
@@ -4347,10 +4338,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="126">
+      <c r="A41" s="141">
         <v>8</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="157" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="65" t="s">
@@ -4364,8 +4355,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="126"/>
-      <c r="B42" s="125"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="157"/>
       <c r="C42" s="15" t="s">
         <v>58</v>
       </c>
@@ -4377,8 +4368,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="126"/>
-      <c r="B43" s="125"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="157"/>
       <c r="C43" s="15" t="s">
         <v>59</v>
       </c>
@@ -4390,10 +4381,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="131">
+      <c r="A44" s="148">
         <v>9</v>
       </c>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="145" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="47" t="s">
@@ -4407,8 +4398,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="131"/>
-      <c r="B45" s="129"/>
+      <c r="A45" s="148"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="47" t="s">
         <v>62</v>
       </c>
@@ -4420,8 +4411,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="131"/>
-      <c r="B46" s="129"/>
+      <c r="A46" s="148"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="47" t="s">
         <v>63</v>
       </c>
@@ -4433,8 +4424,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="131"/>
-      <c r="B47" s="130"/>
+      <c r="A47" s="148"/>
+      <c r="B47" s="159"/>
       <c r="C47" s="57" t="s">
         <v>64</v>
       </c>
@@ -4446,10 +4437,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="103">
+      <c r="A48" s="149">
         <v>10</v>
       </c>
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="150" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="39" t="s">
@@ -4463,8 +4454,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="103"/>
-      <c r="B49" s="121"/>
+      <c r="A49" s="149"/>
+      <c r="B49" s="151"/>
       <c r="C49" s="39" t="s">
         <v>67</v>
       </c>
@@ -4476,8 +4467,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="103"/>
-      <c r="B50" s="121"/>
+      <c r="A50" s="149"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="39" t="s">
         <v>68</v>
       </c>
@@ -4489,10 +4480,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="102">
+      <c r="A51" s="154">
         <v>11</v>
       </c>
-      <c r="B51" s="100" t="s">
+      <c r="B51" s="161" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="39" t="s">
@@ -4506,8 +4497,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="103"/>
-      <c r="B52" s="101"/>
+      <c r="A52" s="149"/>
+      <c r="B52" s="162"/>
       <c r="C52" s="39" t="s">
         <v>71</v>
       </c>
@@ -4519,8 +4510,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
-      <c r="B53" s="101"/>
+      <c r="A53" s="149"/>
+      <c r="B53" s="162"/>
       <c r="C53" s="39" t="s">
         <v>72</v>
       </c>
@@ -4532,8 +4523,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="103"/>
-      <c r="B54" s="101"/>
+      <c r="A54" s="149"/>
+      <c r="B54" s="162"/>
       <c r="C54" s="39" t="s">
         <v>73</v>
       </c>
@@ -4545,10 +4536,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="117">
+      <c r="A55" s="153">
         <v>12</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="170" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="57" t="s">
@@ -4562,8 +4553,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="118"/>
-      <c r="B56" s="115"/>
+      <c r="A56" s="173"/>
+      <c r="B56" s="171"/>
       <c r="C56" s="47" t="s">
         <v>76</v>
       </c>
@@ -4575,8 +4566,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="119"/>
-      <c r="B57" s="116"/>
+      <c r="A57" s="174"/>
+      <c r="B57" s="172"/>
       <c r="C57" s="47" t="s">
         <v>77</v>
       </c>
@@ -4605,10 +4596,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="107">
+      <c r="A59" s="164">
         <v>14</v>
       </c>
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="166" t="s">
         <v>81</v>
       </c>
       <c r="C59" s="39" t="s">
@@ -4622,8 +4613,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="108"/>
-      <c r="B60" s="110"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="145"/>
       <c r="C60" s="7" t="s">
         <v>80</v>
       </c>
@@ -4635,11 +4626,11 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="112"/>
-      <c r="C61" s="113"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="169"/>
       <c r="D61" s="72" t="s">
         <v>118</v>
       </c>
@@ -4674,77 +4665,77 @@
       <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="104"/>
-      <c r="B66" s="106"/>
+      <c r="A66" s="139"/>
+      <c r="B66" s="163"/>
       <c r="C66" s="24"/>
       <c r="D66" s="18"/>
       <c r="E66" s="21"/>
     </row>
     <row r="67" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="104"/>
-      <c r="B67" s="106"/>
+      <c r="A67" s="139"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="24"/>
       <c r="D67" s="18"/>
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="104"/>
-      <c r="B68" s="106"/>
+      <c r="A68" s="139"/>
+      <c r="B68" s="163"/>
       <c r="C68" s="24"/>
       <c r="D68" s="18"/>
       <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="104"/>
-      <c r="B69" s="106"/>
+      <c r="A69" s="139"/>
+      <c r="B69" s="163"/>
       <c r="C69" s="24"/>
       <c r="D69" s="18"/>
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="104"/>
-      <c r="B70" s="106"/>
+      <c r="A70" s="139"/>
+      <c r="B70" s="163"/>
       <c r="C70" s="24"/>
       <c r="D70" s="18"/>
       <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="104"/>
-      <c r="B71" s="106"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="163"/>
       <c r="C71" s="24"/>
       <c r="D71" s="18"/>
       <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="104"/>
-      <c r="B72" s="106"/>
+      <c r="A72" s="139"/>
+      <c r="B72" s="163"/>
       <c r="C72" s="24"/>
       <c r="D72" s="18"/>
       <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="104"/>
-      <c r="B73" s="106"/>
+      <c r="A73" s="139"/>
+      <c r="B73" s="163"/>
       <c r="C73" s="24"/>
       <c r="D73" s="18"/>
       <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="104"/>
-      <c r="B74" s="106"/>
+      <c r="A74" s="139"/>
+      <c r="B74" s="163"/>
       <c r="C74" s="24"/>
       <c r="D74" s="25"/>
       <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="104"/>
+      <c r="A75" s="139"/>
       <c r="B75" s="26"/>
       <c r="C75" s="27"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="104"/>
+      <c r="A76" s="139"/>
       <c r="B76" s="26"/>
       <c r="C76" s="27"/>
       <c r="D76" s="26"/>
@@ -5024,81 +5015,81 @@
       <c r="E115" s="18"/>
     </row>
     <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="104"/>
-      <c r="B116" s="105"/>
+      <c r="A116" s="139"/>
+      <c r="B116" s="160"/>
       <c r="C116" s="24"/>
-      <c r="D116" s="104"/>
-      <c r="E116" s="104"/>
+      <c r="D116" s="139"/>
+      <c r="E116" s="139"/>
     </row>
     <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="104"/>
-      <c r="B117" s="104"/>
+      <c r="A117" s="139"/>
+      <c r="B117" s="139"/>
       <c r="C117" s="24"/>
-      <c r="D117" s="104"/>
-      <c r="E117" s="104"/>
+      <c r="D117" s="139"/>
+      <c r="E117" s="139"/>
     </row>
     <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="104"/>
-      <c r="B118" s="105"/>
+      <c r="A118" s="139"/>
+      <c r="B118" s="160"/>
       <c r="C118" s="24"/>
-      <c r="D118" s="104"/>
-      <c r="E118" s="104"/>
+      <c r="D118" s="139"/>
+      <c r="E118" s="139"/>
     </row>
     <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="104"/>
-      <c r="B119" s="104"/>
+      <c r="A119" s="139"/>
+      <c r="B119" s="139"/>
       <c r="C119" s="24"/>
-      <c r="D119" s="104"/>
-      <c r="E119" s="104"/>
+      <c r="D119" s="139"/>
+      <c r="E119" s="139"/>
     </row>
     <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="104"/>
-      <c r="B120" s="104"/>
+      <c r="A120" s="139"/>
+      <c r="B120" s="139"/>
       <c r="C120" s="24"/>
-      <c r="D120" s="104"/>
-      <c r="E120" s="104"/>
+      <c r="D120" s="139"/>
+      <c r="E120" s="139"/>
     </row>
     <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="104"/>
-      <c r="B121" s="105"/>
+      <c r="A121" s="139"/>
+      <c r="B121" s="160"/>
       <c r="C121" s="24"/>
-      <c r="D121" s="104"/>
-      <c r="E121" s="104"/>
+      <c r="D121" s="139"/>
+      <c r="E121" s="139"/>
     </row>
     <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="104"/>
-      <c r="B122" s="104"/>
+      <c r="A122" s="139"/>
+      <c r="B122" s="139"/>
       <c r="C122" s="24"/>
-      <c r="D122" s="104"/>
-      <c r="E122" s="104"/>
+      <c r="D122" s="139"/>
+      <c r="E122" s="139"/>
     </row>
     <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="104"/>
-      <c r="B123" s="105"/>
+      <c r="A123" s="139"/>
+      <c r="B123" s="160"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="104"/>
-      <c r="E123" s="104"/>
+      <c r="D123" s="139"/>
+      <c r="E123" s="139"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="104"/>
-      <c r="B124" s="104"/>
+      <c r="A124" s="139"/>
+      <c r="B124" s="139"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
+      <c r="D124" s="139"/>
+      <c r="E124" s="139"/>
     </row>
     <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="104"/>
-      <c r="B125" s="104"/>
+      <c r="A125" s="139"/>
+      <c r="B125" s="139"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="104"/>
-      <c r="E125" s="104"/>
+      <c r="D125" s="139"/>
+      <c r="E125" s="139"/>
     </row>
     <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
       <c r="B126" s="30"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="104"/>
-      <c r="E126" s="104"/>
+      <c r="D126" s="139"/>
+      <c r="E126" s="139"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33"/>
@@ -6040,52 +6031,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D118:E120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:E122"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="D123:E125"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A123:A125"/>
@@ -6098,2291 +6043,35 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A55:A57"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV267"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="75.875" style="1" customWidth="1"/>
-    <col min="6" max="256" width="15.125" style="1"/>
-    <col min="257" max="16384" width="15.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="158"/>
-    </row>
-    <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="162"/>
-    </row>
-    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="163" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="164" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-    </row>
-    <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="169" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-    </row>
-    <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-    </row>
-    <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="141" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-    </row>
-    <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-    </row>
-    <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="146" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-    </row>
-    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-    </row>
-    <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="146" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-    </row>
-    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="172">
-        <v>1</v>
-      </c>
-      <c r="B17" s="173" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="172"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="66">
-        <v>3</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="66">
-        <v>3</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="66">
-        <v>3</v>
-      </c>
-      <c r="E20" s="76" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="131">
-        <v>2</v>
-      </c>
-      <c r="B21" s="176" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="66">
-        <v>10</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="131"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="66">
-        <v>10</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="131"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="66">
-        <v>8</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="172">
-        <v>3</v>
-      </c>
-      <c r="B24" s="176" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="67">
-        <v>5</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="172"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="52">
-        <v>5</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="172"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="79">
-        <v>10</v>
-      </c>
-      <c r="E26" s="80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="172">
-        <v>4</v>
-      </c>
-      <c r="B27" s="176" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="75">
-        <v>30</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="183"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="196" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="99">
-        <v>20</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="172"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="52">
-        <v>20</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="172">
-        <v>5</v>
-      </c>
-      <c r="B30" s="178" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="52">
-        <v>45</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="172"/>
-      <c r="B31" s="178"/>
-      <c r="C31" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="52">
-        <v>30</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="183"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="197" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="93">
-        <v>30</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="183"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="52">
-        <v>30</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="183"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="52">
-        <v>20</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="183"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="198" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="52">
-        <v>20</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="183"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="198" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="52">
-        <v>15</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="183"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="198" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="93">
-        <v>10</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="172"/>
-      <c r="B38" s="178"/>
-      <c r="C38" s="197" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="93">
-        <v>30</v>
-      </c>
-      <c r="E38" s="94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="172"/>
-      <c r="B39" s="178"/>
-      <c r="C39" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="95">
-        <v>20</v>
-      </c>
-      <c r="E39" s="97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="184">
-        <v>6</v>
-      </c>
-      <c r="B40" s="187" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="99">
-        <v>10</v>
-      </c>
-      <c r="E40" s="97" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="185"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="77">
-        <v>20</v>
-      </c>
-      <c r="E41" s="96" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="185"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="77">
-        <v>20</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="185"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="77">
-        <v>20</v>
-      </c>
-      <c r="E43" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="186"/>
-      <c r="B44" s="189"/>
-      <c r="C44" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="77">
-        <v>15</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="192">
-        <v>7</v>
-      </c>
-      <c r="B45" s="190" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="77">
-        <v>30</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="118"/>
-      <c r="B46" s="191"/>
-      <c r="C46" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="77">
-        <v>30</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="118"/>
-      <c r="B47" s="191"/>
-      <c r="C47" s="197" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="77">
-        <v>25</v>
-      </c>
-      <c r="E47" s="98" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="172">
-        <v>8</v>
-      </c>
-      <c r="B48" s="176" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="172"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="D49" s="66">
-        <v>25</v>
-      </c>
-      <c r="E49" s="56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="172"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="66">
-        <v>25</v>
-      </c>
-      <c r="E50" s="56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="172">
-        <v>9</v>
-      </c>
-      <c r="B51" s="175" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="66">
-        <v>0</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="172"/>
-      <c r="B52" s="175"/>
-      <c r="C52" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="66">
-        <v>0</v>
-      </c>
-      <c r="E52" s="56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="131">
-        <v>10</v>
-      </c>
-      <c r="B53" s="175" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="77">
-        <v>20</v>
-      </c>
-      <c r="E53" s="56"/>
-    </row>
-    <row r="54" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="117"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="77">
-        <v>8</v>
-      </c>
-      <c r="E54" s="78"/>
-    </row>
-    <row r="55" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="74">
-        <v>11</v>
-      </c>
-      <c r="B55" s="85" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="74">
-        <v>5</v>
-      </c>
-      <c r="E55" s="80"/>
-    </row>
-    <row r="56" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="87"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="26"/>
-    </row>
-    <row r="57" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="73"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="104"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="104"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="26"/>
-    </row>
-    <row r="60" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="104"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="104"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="26"/>
-    </row>
-    <row r="62" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="104"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="108"/>
-      <c r="B63" s="181"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="26"/>
-    </row>
-    <row r="64" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="108"/>
-      <c r="B64" s="181"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="26"/>
-    </row>
-    <row r="65" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="108"/>
-      <c r="B65" s="181"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="26"/>
-    </row>
-    <row r="66" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="108"/>
-      <c r="B66" s="181"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="26"/>
-    </row>
-    <row r="67" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="26"/>
-    </row>
-    <row r="68" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="182"/>
-      <c r="B68" s="106"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="26"/>
-    </row>
-    <row r="69" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="26"/>
-    </row>
-    <row r="70" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="26"/>
-    </row>
-    <row r="71" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="26"/>
-    </row>
-    <row r="72" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="26"/>
-    </row>
-    <row r="73" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="104"/>
-      <c r="B73" s="106"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="26"/>
-    </row>
-    <row r="74" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="104"/>
-      <c r="B74" s="106"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="26"/>
-    </row>
-    <row r="75" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="104"/>
-      <c r="B75" s="106"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="26"/>
-    </row>
-    <row r="76" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="104"/>
-      <c r="B76" s="106"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="26"/>
-    </row>
-    <row r="77" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="104"/>
-      <c r="B77" s="106"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="26"/>
-    </row>
-    <row r="78" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="104"/>
-      <c r="B78" s="106"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="26"/>
-    </row>
-    <row r="79" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="104"/>
-      <c r="B79" s="106"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="26"/>
-    </row>
-    <row r="80" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="104"/>
-      <c r="B80" s="106"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="26"/>
-    </row>
-    <row r="81" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="104"/>
-      <c r="B81" s="106"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="26"/>
-    </row>
-    <row r="82" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="104"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-    </row>
-    <row r="83" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="104"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-    </row>
-    <row r="84" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="73"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-    </row>
-    <row r="85" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="73"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-    </row>
-    <row r="86" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="73"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-    </row>
-    <row r="87" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="73"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-    </row>
-    <row r="88" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="73"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-    </row>
-    <row r="89" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="73"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-    </row>
-    <row r="90" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="73"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-    </row>
-    <row r="91" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="36"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-    </row>
-    <row r="92" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-    </row>
-    <row r="93" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="36"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-    </row>
-    <row r="94" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="36"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-    </row>
-    <row r="95" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="36"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-    </row>
-    <row r="96" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="36"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-    </row>
-    <row r="97" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="36"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-    </row>
-    <row r="98" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="36"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-    </row>
-    <row r="99" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="36"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-    </row>
-    <row r="100" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="36"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-    </row>
-    <row r="101" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="36"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-    </row>
-    <row r="102" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="36"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-    </row>
-    <row r="103" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-    </row>
-    <row r="104" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="36"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-    </row>
-    <row r="105" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="36"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-    </row>
-    <row r="106" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="36"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-    </row>
-    <row r="107" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="38"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-    </row>
-    <row r="108" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="31"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-    </row>
-    <row r="109" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="32"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-    </row>
-    <row r="110" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="36"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-    </row>
-    <row r="111" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="36"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-    </row>
-    <row r="112" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="36"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-    </row>
-    <row r="113" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-    </row>
-    <row r="114" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="36"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-    </row>
-    <row r="115" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-    </row>
-    <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="36"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-    </row>
-    <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="36"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-    </row>
-    <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="36"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-    </row>
-    <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-    </row>
-    <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-    </row>
-    <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-    </row>
-    <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="36"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-    </row>
-    <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="104"/>
-      <c r="B123" s="105"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="104"/>
-      <c r="E123" s="104"/>
-    </row>
-    <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="104"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="104"/>
-      <c r="E124" s="104"/>
-    </row>
-    <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="104"/>
-      <c r="B125" s="105"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="104"/>
-      <c r="E125" s="104"/>
-    </row>
-    <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="104"/>
-      <c r="B126" s="104"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="104"/>
-      <c r="E126" s="104"/>
-    </row>
-    <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="104"/>
-      <c r="B127" s="104"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="104"/>
-      <c r="E127" s="104"/>
-    </row>
-    <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="104"/>
-      <c r="B128" s="105"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="104"/>
-      <c r="E128" s="104"/>
-    </row>
-    <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="104"/>
-      <c r="B129" s="104"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="104"/>
-      <c r="E129" s="104"/>
-    </row>
-    <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="104"/>
-      <c r="B130" s="105"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="104"/>
-      <c r="E130" s="104"/>
-    </row>
-    <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="104"/>
-      <c r="B131" s="104"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="104"/>
-      <c r="E131" s="104"/>
-    </row>
-    <row r="132" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="104"/>
-      <c r="B132" s="104"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="104"/>
-      <c r="E132" s="104"/>
-    </row>
-    <row r="133" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="36"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="104"/>
-      <c r="E133" s="104"/>
-    </row>
-    <row r="134" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="33"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="26"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="26"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="26"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="26"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="26"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="26"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="26"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="26"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="26"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="27"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="26"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="27"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="26"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="26"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="26"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="27"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="26"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="27"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="26"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="27"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="27"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="27"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="27"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="27"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="27"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="27"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="27"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="27"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="27"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="26"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="27"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="27"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="26"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="27"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="27"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="27"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="26"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="27"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="26"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="27"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="26"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="27"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="26"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="27"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="26"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="26"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="27"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="26"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="26"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="26"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="27"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="27"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="26"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="27"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="26"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="27"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="26"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="27"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="27"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="26"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="27"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="26"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="26"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="27"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="26"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="27"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="27"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="26"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="26"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="26"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="26"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="26"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="27"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="26"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="26"/>
-      <c r="E207" s="26"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="26"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="27"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="26"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="27"/>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="26"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="27"/>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="26"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="27"/>
-      <c r="D211" s="26"/>
-      <c r="E211" s="26"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="26"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="27"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="26"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="27"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="26"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="27"/>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="27"/>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="26"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="27"/>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="26"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="27"/>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="26"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="26"/>
-      <c r="B220" s="26"/>
-      <c r="C220" s="27"/>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="26"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="27"/>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="26"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="27"/>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="26"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="27"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="26"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="27"/>
-      <c r="D224" s="26"/>
-      <c r="E224" s="26"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="26"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="27"/>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="27"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="26"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="27"/>
-      <c r="D227" s="26"/>
-      <c r="E227" s="26"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="27"/>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="26"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="27"/>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="27"/>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="27"/>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="26"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="27"/>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="27"/>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="26"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="27"/>
-      <c r="D234" s="26"/>
-      <c r="E234" s="26"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="26"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="27"/>
-      <c r="D235" s="26"/>
-      <c r="E235" s="26"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="26"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="27"/>
-      <c r="D236" s="26"/>
-      <c r="E236" s="26"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="27"/>
-      <c r="D237" s="26"/>
-      <c r="E237" s="26"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="26"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="27"/>
-      <c r="D238" s="26"/>
-      <c r="E238" s="26"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="26"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="27"/>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="27"/>
-      <c r="D240" s="26"/>
-      <c r="E240" s="26"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="26"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="27"/>
-      <c r="D241" s="26"/>
-      <c r="E241" s="26"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="27"/>
-      <c r="D242" s="26"/>
-      <c r="E242" s="26"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="27"/>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="26"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="27"/>
-      <c r="D244" s="26"/>
-      <c r="E244" s="26"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="26"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="27"/>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="26"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="27"/>
-      <c r="D246" s="26"/>
-      <c r="E246" s="26"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="26"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="27"/>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="26"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="27"/>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="26"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="27"/>
-      <c r="D249" s="26"/>
-      <c r="E249" s="26"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="26"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="27"/>
-      <c r="D250" s="26"/>
-      <c r="E250" s="26"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="26"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="27"/>
-      <c r="D251" s="26"/>
-      <c r="E251" s="26"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="26"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="27"/>
-      <c r="D252" s="26"/>
-      <c r="E252" s="26"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
-      <c r="C253" s="27"/>
-      <c r="D253" s="26"/>
-      <c r="E253" s="26"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
-      <c r="C254" s="27"/>
-      <c r="D254" s="26"/>
-      <c r="E254" s="26"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="27"/>
-      <c r="D255" s="26"/>
-      <c r="E255" s="26"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="27"/>
-      <c r="D256" s="26"/>
-      <c r="E256" s="26"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="26"/>
-      <c r="B257" s="26"/>
-      <c r="C257" s="27"/>
-      <c r="D257" s="26"/>
-      <c r="E257" s="26"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="26"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="27"/>
-      <c r="D258" s="26"/>
-      <c r="E258" s="26"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="26"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="27"/>
-      <c r="D259" s="26"/>
-      <c r="E259" s="26"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="26"/>
-      <c r="B260" s="26"/>
-      <c r="C260" s="27"/>
-      <c r="D260" s="26"/>
-      <c r="E260" s="26"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="26"/>
-      <c r="B261" s="26"/>
-      <c r="C261" s="27"/>
-      <c r="D261" s="26"/>
-      <c r="E261" s="26"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="26"/>
-      <c r="B262" s="26"/>
-      <c r="C262" s="27"/>
-      <c r="D262" s="26"/>
-      <c r="E262" s="26"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="26"/>
-      <c r="B263" s="26"/>
-      <c r="C263" s="27"/>
-      <c r="D263" s="26"/>
-      <c r="E263" s="26"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="27"/>
-      <c r="D264" s="26"/>
-      <c r="E264" s="26"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="26"/>
-      <c r="B265" s="26"/>
-      <c r="C265" s="27"/>
-      <c r="D265" s="26"/>
-      <c r="E265" s="26"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="26"/>
-      <c r="B266" s="26"/>
-      <c r="C266" s="27"/>
-      <c r="D266" s="26"/>
-      <c r="E266" s="26"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="26"/>
-      <c r="B267" s="26"/>
-      <c r="C267" s="27"/>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="58">
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:E122"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D123:E125"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D130:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D123:E124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="D125:E127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="D128:E129"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="B73:B81"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B51:B52"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
@@ -8407,6 +6096,2308 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV267"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75.875" style="1" customWidth="1"/>
+    <col min="6" max="256" width="15.125" style="1"/>
+    <col min="257" max="16384" width="15.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="106"/>
+    </row>
+    <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="110"/>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+    </row>
+    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+    </row>
+    <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+    </row>
+    <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+    </row>
+    <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="125" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="112"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+    </row>
+    <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+    </row>
+    <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+    </row>
+    <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+    </row>
+    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="136"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="175">
+        <v>1</v>
+      </c>
+      <c r="B17" s="195" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="175"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="66">
+        <v>3</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="175"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="66">
+        <v>3</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="175"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="66">
+        <v>3</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="148">
+        <v>2</v>
+      </c>
+      <c r="B21" s="176" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="66">
+        <v>10</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="66">
+        <v>10</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="148"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="66">
+        <v>8</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="175">
+        <v>3</v>
+      </c>
+      <c r="B24" s="176" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="67">
+        <v>5</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="175"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="52">
+        <v>5</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="175"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="79">
+        <v>10</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="175">
+        <v>4</v>
+      </c>
+      <c r="B27" s="176" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="75">
+        <v>30</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="183"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="99">
+        <v>20</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="175"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="52">
+        <v>20</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="175">
+        <v>5</v>
+      </c>
+      <c r="B30" s="190" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="52">
+        <v>45</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="175"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="52">
+        <v>30</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="183"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="93">
+        <v>30</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="183"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="52">
+        <v>30</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="183"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="52">
+        <v>20</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="183"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="52">
+        <v>20</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="183"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="52">
+        <v>15</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="183"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="93">
+        <v>10</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="175"/>
+      <c r="B38" s="190"/>
+      <c r="C38" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="93">
+        <v>30</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="175"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="95">
+        <v>20</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="184">
+        <v>6</v>
+      </c>
+      <c r="B40" s="177" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="99">
+        <v>10</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="185"/>
+      <c r="B41" s="178"/>
+      <c r="C41" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="77">
+        <v>20</v>
+      </c>
+      <c r="E41" s="96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="185"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="77">
+        <v>20</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="185"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="77">
+        <v>20</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="186"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="77">
+        <v>15</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="182">
+        <v>7</v>
+      </c>
+      <c r="B45" s="180" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="77">
+        <v>30</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="173"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="77">
+        <v>30</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="173"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="77">
+        <v>25</v>
+      </c>
+      <c r="E47" s="98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="175">
+        <v>8</v>
+      </c>
+      <c r="B48" s="176" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="175"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="66">
+        <v>25</v>
+      </c>
+      <c r="E49" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="175"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="66">
+        <v>25</v>
+      </c>
+      <c r="E50" s="56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="175">
+        <v>9</v>
+      </c>
+      <c r="B51" s="192" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="66">
+        <v>0</v>
+      </c>
+      <c r="E51" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="175"/>
+      <c r="B52" s="192"/>
+      <c r="C52" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="66">
+        <v>0</v>
+      </c>
+      <c r="E52" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="148">
+        <v>10</v>
+      </c>
+      <c r="B53" s="192" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="77">
+        <v>20</v>
+      </c>
+      <c r="E53" s="56"/>
+    </row>
+    <row r="54" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="153"/>
+      <c r="B54" s="193"/>
+      <c r="C54" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="77">
+        <v>8</v>
+      </c>
+      <c r="E54" s="78"/>
+    </row>
+    <row r="55" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="74">
+        <v>11</v>
+      </c>
+      <c r="B55" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="74">
+        <v>5</v>
+      </c>
+      <c r="E55" s="80"/>
+    </row>
+    <row r="56" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="87"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="73"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="139"/>
+      <c r="B58" s="194"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="139"/>
+      <c r="B59" s="194"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="139"/>
+      <c r="B60" s="194"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="139"/>
+      <c r="B61" s="194"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="26"/>
+    </row>
+    <row r="62" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="139"/>
+      <c r="B62" s="194"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="165"/>
+      <c r="B63" s="187"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="165"/>
+      <c r="B64" s="187"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="165"/>
+      <c r="B65" s="187"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="165"/>
+      <c r="B66" s="187"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="188"/>
+      <c r="B68" s="163"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="21"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="139"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="139"/>
+      <c r="B74" s="163"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="139"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="26"/>
+    </row>
+    <row r="76" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="139"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="139"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="139"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="139"/>
+      <c r="B79" s="163"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="26"/>
+    </row>
+    <row r="80" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="139"/>
+      <c r="B80" s="163"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="139"/>
+      <c r="B81" s="163"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="139"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="139"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+    </row>
+    <row r="84" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="73"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+    </row>
+    <row r="85" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="73"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+    </row>
+    <row r="86" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="73"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+    </row>
+    <row r="87" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="73"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+    </row>
+    <row r="88" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="73"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+    </row>
+    <row r="89" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="73"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+    </row>
+    <row r="90" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="73"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+    </row>
+    <row r="91" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="36"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+    </row>
+    <row r="92" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="36"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+    </row>
+    <row r="93" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="36"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+    </row>
+    <row r="94" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="36"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+    </row>
+    <row r="95" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="36"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+    </row>
+    <row r="96" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="36"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+    </row>
+    <row r="97" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="36"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+    </row>
+    <row r="98" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="36"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+    </row>
+    <row r="99" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="36"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+    </row>
+    <row r="100" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="36"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+    </row>
+    <row r="101" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="36"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+    </row>
+    <row r="102" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="36"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+    </row>
+    <row r="103" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="36"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+    </row>
+    <row r="104" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="36"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+    </row>
+    <row r="105" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="36"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+    </row>
+    <row r="106" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="36"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+    </row>
+    <row r="107" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="38"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+    </row>
+    <row r="108" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="31"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+    </row>
+    <row r="109" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="32"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+    </row>
+    <row r="110" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="36"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+    </row>
+    <row r="111" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="36"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+    </row>
+    <row r="112" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="36"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+    </row>
+    <row r="113" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="36"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+    </row>
+    <row r="114" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="36"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+    </row>
+    <row r="115" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="36"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+    </row>
+    <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="36"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+    </row>
+    <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="36"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+    </row>
+    <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="36"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+    </row>
+    <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+    </row>
+    <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+    </row>
+    <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+    </row>
+    <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="36"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+    </row>
+    <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="139"/>
+      <c r="B123" s="160"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="139"/>
+      <c r="E123" s="139"/>
+    </row>
+    <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="139"/>
+      <c r="B124" s="139"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="139"/>
+      <c r="E124" s="139"/>
+    </row>
+    <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="139"/>
+      <c r="B125" s="160"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="139"/>
+      <c r="E125" s="139"/>
+    </row>
+    <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="139"/>
+      <c r="B126" s="139"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="139"/>
+      <c r="E126" s="139"/>
+    </row>
+    <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="139"/>
+      <c r="B127" s="139"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="139"/>
+      <c r="E127" s="139"/>
+    </row>
+    <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="139"/>
+      <c r="B128" s="160"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="139"/>
+      <c r="E128" s="139"/>
+    </row>
+    <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="139"/>
+      <c r="B129" s="139"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="139"/>
+      <c r="E129" s="139"/>
+    </row>
+    <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="139"/>
+      <c r="B130" s="160"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="139"/>
+      <c r="E130" s="139"/>
+    </row>
+    <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="139"/>
+      <c r="B131" s="139"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="139"/>
+      <c r="E131" s="139"/>
+    </row>
+    <row r="132" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="139"/>
+      <c r="B132" s="139"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="139"/>
+      <c r="E132" s="139"/>
+    </row>
+    <row r="133" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="36"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="139"/>
+      <c r="E133" s="139"/>
+    </row>
+    <row r="134" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="33"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="26"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="26"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="26"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="26"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="26"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="26"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="26"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="27"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="27"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="26"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="27"/>
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="27"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="27"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="27"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="26"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="27"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="27"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
+      <c r="C234" s="27"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="27"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="26"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="27"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="26"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="27"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="26"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="26"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="27"/>
+      <c r="D238" s="26"/>
+      <c r="E238" s="26"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="27"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="27"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="27"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="27"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="26"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="27"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="27"/>
+      <c r="D244" s="26"/>
+      <c r="E244" s="26"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
+      <c r="C245" s="27"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="26"/>
+      <c r="B246" s="26"/>
+      <c r="C246" s="27"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="27"/>
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="27"/>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="27"/>
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="26"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="27"/>
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="27"/>
+      <c r="D251" s="26"/>
+      <c r="E251" s="26"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="27"/>
+      <c r="D252" s="26"/>
+      <c r="E252" s="26"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="27"/>
+      <c r="D253" s="26"/>
+      <c r="E253" s="26"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="27"/>
+      <c r="D254" s="26"/>
+      <c r="E254" s="26"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="27"/>
+      <c r="D255" s="26"/>
+      <c r="E255" s="26"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="27"/>
+      <c r="D256" s="26"/>
+      <c r="E256" s="26"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="27"/>
+      <c r="D257" s="26"/>
+      <c r="E257" s="26"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
+      <c r="C258" s="27"/>
+      <c r="D258" s="26"/>
+      <c r="E258" s="26"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="26"/>
+      <c r="B259" s="26"/>
+      <c r="C259" s="27"/>
+      <c r="D259" s="26"/>
+      <c r="E259" s="26"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="26"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="27"/>
+      <c r="D260" s="26"/>
+      <c r="E260" s="26"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="26"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="27"/>
+      <c r="D261" s="26"/>
+      <c r="E261" s="26"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="26"/>
+      <c r="B262" s="26"/>
+      <c r="C262" s="27"/>
+      <c r="D262" s="26"/>
+      <c r="E262" s="26"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="27"/>
+      <c r="D263" s="26"/>
+      <c r="E263" s="26"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="26"/>
+      <c r="B264" s="26"/>
+      <c r="C264" s="27"/>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="26"/>
+      <c r="B265" s="26"/>
+      <c r="C265" s="27"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="26"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="26"/>
+      <c r="B266" s="26"/>
+      <c r="C266" s="27"/>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="26"/>
+      <c r="B267" s="26"/>
+      <c r="C267" s="27"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="D130:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D123:E124"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="D125:E127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="D128:E129"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A45:A47"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52457828-D899-4086-AB89-84847A33DC4A}">
   <dimension ref="B129:F136"/>
@@ -8418,10 +8409,10 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="129" spans="2:6" ht="138" x14ac:dyDescent="0.15">
-      <c r="B129" s="172">
+      <c r="B129" s="175">
         <v>2</v>
       </c>
-      <c r="C129" s="173" t="s">
+      <c r="C129" s="195" t="s">
         <v>164</v>
       </c>
       <c r="D129" s="84" t="s">
@@ -8433,8 +8424,8 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="69" x14ac:dyDescent="0.15">
-      <c r="B130" s="172"/>
-      <c r="C130" s="173"/>
+      <c r="B130" s="175"/>
+      <c r="C130" s="195"/>
       <c r="D130" s="84" t="s">
         <v>125</v>
       </c>
@@ -8444,8 +8435,8 @@
       </c>
     </row>
     <row r="131" spans="2:6" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="B131" s="172"/>
-      <c r="C131" s="173"/>
+      <c r="B131" s="175"/>
+      <c r="C131" s="195"/>
       <c r="D131" s="84" t="s">
         <v>126</v>
       </c>
@@ -8455,8 +8446,8 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="B132" s="172"/>
-      <c r="C132" s="173"/>
+      <c r="B132" s="175"/>
+      <c r="C132" s="195"/>
       <c r="D132" s="84" t="s">
         <v>127</v>
       </c>
@@ -8466,7 +8457,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B133" s="131">
+      <c r="B133" s="148">
         <v>3</v>
       </c>
       <c r="C133" s="176" t="s">
@@ -8476,36 +8467,36 @@
         <v>128</v>
       </c>
       <c r="E133" s="66"/>
-      <c r="F133" s="193" t="s">
+      <c r="F133" s="196" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B134" s="131"/>
+      <c r="B134" s="148"/>
       <c r="C134" s="176"/>
       <c r="D134" s="84" t="s">
         <v>129</v>
       </c>
       <c r="E134" s="66"/>
-      <c r="F134" s="194"/>
+      <c r="F134" s="197"/>
     </row>
     <row r="135" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B135" s="131"/>
+      <c r="B135" s="148"/>
       <c r="C135" s="176"/>
       <c r="D135" s="84" t="s">
         <v>130</v>
       </c>
       <c r="E135" s="66"/>
-      <c r="F135" s="194"/>
+      <c r="F135" s="197"/>
     </row>
     <row r="136" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B136" s="131"/>
+      <c r="B136" s="148"/>
       <c r="C136" s="176"/>
       <c r="D136" s="84" t="s">
         <v>131</v>
       </c>
       <c r="E136" s="66"/>
-      <c r="F136" s="195"/>
+      <c r="F136" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/docs/python测试开发课程实战—商业实战课程规划V1.6.xlsx
+++ b/docs/python测试开发课程实战—商业实战课程规划V1.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyPython\Nahsor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:520000_{DFEA4438-576B-42D4-AEE8-63BDCCD7B29F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{01FA97E7-9C8A-4F7E-9585-97F50662B707}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="1455" windowWidth="28200" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="1455" windowWidth="28200" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自动化" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2403,6 +2402,171 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2427,15 +2591,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2463,168 +2618,51 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2641,45 +2679,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3830,7 +3829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV260"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -3846,139 +3845,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="161"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="110"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="165"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="115" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="120" t="s">
+      <c r="B5" s="169"/>
+      <c r="C5" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -3998,10 +3997,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="138">
+      <c r="A17" s="157">
         <v>1</v>
       </c>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="140" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -4015,8 +4014,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="139"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
@@ -4028,8 +4027,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="139"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
@@ -4041,8 +4040,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="139"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
@@ -4054,10 +4053,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="123">
+      <c r="A21" s="139">
         <v>2</v>
       </c>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="140" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -4071,8 +4070,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="9" t="s">
         <v>33</v>
       </c>
@@ -4084,8 +4083,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="123"/>
-      <c r="B23" s="124"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="9" t="s">
         <v>34</v>
       </c>
@@ -4097,10 +4096,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="140">
+      <c r="A24" s="130">
         <v>3</v>
       </c>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="135" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -4114,8 +4113,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="141"/>
-      <c r="B25" s="143"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="9" t="s">
         <v>35</v>
       </c>
@@ -4127,10 +4126,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="148">
+      <c r="A26" s="134">
         <v>4</v>
       </c>
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="138" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="57" t="s">
@@ -4144,8 +4143,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="148"/>
-      <c r="B27" s="147"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="57" t="s">
         <v>39</v>
       </c>
@@ -4157,8 +4156,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
-      <c r="B28" s="147"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="138"/>
       <c r="C28" s="49" t="s">
         <v>40</v>
       </c>
@@ -4170,8 +4169,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="148"/>
-      <c r="B29" s="147"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="138"/>
       <c r="C29" s="51" t="s">
         <v>46</v>
       </c>
@@ -4183,8 +4182,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
-      <c r="B30" s="147"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="138"/>
       <c r="C30" s="51" t="s">
         <v>41</v>
       </c>
@@ -4196,10 +4195,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="144">
+      <c r="A31" s="137">
         <v>5</v>
       </c>
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="113" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="53" t="s">
@@ -4213,8 +4212,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="144"/>
-      <c r="B32" s="146"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="69" t="s">
         <v>44</v>
       </c>
@@ -4226,8 +4225,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="144"/>
-      <c r="B33" s="146"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="69" t="s">
         <v>45</v>
       </c>
@@ -4239,10 +4238,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="152">
+      <c r="A34" s="125">
         <v>6</v>
       </c>
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="126" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="68" t="s">
@@ -4256,8 +4255,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="152"/>
-      <c r="B35" s="156"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="47" t="s">
         <v>49</v>
       </c>
@@ -4269,8 +4268,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="153"/>
-      <c r="B36" s="156"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="49" t="s">
         <v>50</v>
       </c>
@@ -4282,8 +4281,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="154"/>
-      <c r="B37" s="156"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="61" t="s">
         <v>51</v>
       </c>
@@ -4295,10 +4294,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="140">
+      <c r="A38" s="130">
         <v>7</v>
       </c>
-      <c r="B38" s="157" t="s">
+      <c r="B38" s="128" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -4312,8 +4311,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="141"/>
-      <c r="B39" s="157"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="14" t="s">
         <v>54</v>
       </c>
@@ -4325,8 +4324,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="158"/>
-      <c r="B40" s="157"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="14" t="s">
         <v>55</v>
       </c>
@@ -4338,10 +4337,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="141">
+      <c r="A41" s="129">
         <v>8</v>
       </c>
-      <c r="B41" s="157" t="s">
+      <c r="B41" s="128" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="65" t="s">
@@ -4355,8 +4354,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="141"/>
-      <c r="B42" s="157"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="15" t="s">
         <v>58</v>
       </c>
@@ -4368,8 +4367,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="141"/>
-      <c r="B43" s="157"/>
+      <c r="A43" s="129"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="15" t="s">
         <v>59</v>
       </c>
@@ -4381,10 +4380,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="148">
+      <c r="A44" s="134">
         <v>9</v>
       </c>
-      <c r="B44" s="145" t="s">
+      <c r="B44" s="113" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="47" t="s">
@@ -4398,8 +4397,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="148"/>
-      <c r="B45" s="146"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="132"/>
       <c r="C45" s="47" t="s">
         <v>62</v>
       </c>
@@ -4411,8 +4410,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="148"/>
-      <c r="B46" s="146"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="132"/>
       <c r="C46" s="47" t="s">
         <v>63</v>
       </c>
@@ -4424,8 +4423,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="148"/>
-      <c r="B47" s="159"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="133"/>
       <c r="C47" s="57" t="s">
         <v>64</v>
       </c>
@@ -4437,10 +4436,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="149">
+      <c r="A48" s="106">
         <v>10</v>
       </c>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="123" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="39" t="s">
@@ -4454,8 +4453,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="149"/>
-      <c r="B49" s="151"/>
+      <c r="A49" s="106"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="39" t="s">
         <v>67</v>
       </c>
@@ -4467,8 +4466,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="149"/>
-      <c r="B50" s="151"/>
+      <c r="A50" s="106"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="39" t="s">
         <v>68</v>
       </c>
@@ -4480,10 +4479,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="154">
+      <c r="A51" s="105">
         <v>11</v>
       </c>
-      <c r="B51" s="161" t="s">
+      <c r="B51" s="103" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="39" t="s">
@@ -4497,8 +4496,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="149"/>
-      <c r="B52" s="162"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="39" t="s">
         <v>71</v>
       </c>
@@ -4510,8 +4509,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="149"/>
-      <c r="B53" s="162"/>
+      <c r="A53" s="106"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="39" t="s">
         <v>72</v>
       </c>
@@ -4523,8 +4522,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="149"/>
-      <c r="B54" s="162"/>
+      <c r="A54" s="106"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="39" t="s">
         <v>73</v>
       </c>
@@ -4536,10 +4535,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="153">
+      <c r="A55" s="120">
         <v>12</v>
       </c>
-      <c r="B55" s="170" t="s">
+      <c r="B55" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="57" t="s">
@@ -4553,8 +4552,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="173"/>
-      <c r="B56" s="171"/>
+      <c r="A56" s="121"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="47" t="s">
         <v>76</v>
       </c>
@@ -4566,8 +4565,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="174"/>
-      <c r="B57" s="172"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="47" t="s">
         <v>77</v>
       </c>
@@ -4596,10 +4595,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="164">
+      <c r="A59" s="110">
         <v>14</v>
       </c>
-      <c r="B59" s="166" t="s">
+      <c r="B59" s="112" t="s">
         <v>81</v>
       </c>
       <c r="C59" s="39" t="s">
@@ -4613,8 +4612,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="165"/>
-      <c r="B60" s="145"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="113"/>
       <c r="C60" s="7" t="s">
         <v>80</v>
       </c>
@@ -4626,11 +4625,11 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="167" t="s">
+      <c r="A61" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
       <c r="D61" s="72" t="s">
         <v>118</v>
       </c>
@@ -4665,77 +4664,77 @@
       <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="139"/>
-      <c r="B66" s="163"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="109"/>
       <c r="C66" s="24"/>
       <c r="D66" s="18"/>
       <c r="E66" s="21"/>
     </row>
     <row r="67" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="139"/>
-      <c r="B67" s="163"/>
+      <c r="A67" s="107"/>
+      <c r="B67" s="109"/>
       <c r="C67" s="24"/>
       <c r="D67" s="18"/>
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="139"/>
-      <c r="B68" s="163"/>
+      <c r="A68" s="107"/>
+      <c r="B68" s="109"/>
       <c r="C68" s="24"/>
       <c r="D68" s="18"/>
       <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="139"/>
-      <c r="B69" s="163"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="109"/>
       <c r="C69" s="24"/>
       <c r="D69" s="18"/>
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="139"/>
-      <c r="B70" s="163"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="109"/>
       <c r="C70" s="24"/>
       <c r="D70" s="18"/>
       <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="139"/>
-      <c r="B71" s="163"/>
+      <c r="A71" s="107"/>
+      <c r="B71" s="109"/>
       <c r="C71" s="24"/>
       <c r="D71" s="18"/>
       <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="139"/>
-      <c r="B72" s="163"/>
+      <c r="A72" s="107"/>
+      <c r="B72" s="109"/>
       <c r="C72" s="24"/>
       <c r="D72" s="18"/>
       <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="139"/>
-      <c r="B73" s="163"/>
+      <c r="A73" s="107"/>
+      <c r="B73" s="109"/>
       <c r="C73" s="24"/>
       <c r="D73" s="18"/>
       <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="139"/>
-      <c r="B74" s="163"/>
+      <c r="A74" s="107"/>
+      <c r="B74" s="109"/>
       <c r="C74" s="24"/>
       <c r="D74" s="25"/>
       <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="139"/>
+      <c r="A75" s="107"/>
       <c r="B75" s="26"/>
       <c r="C75" s="27"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="139"/>
+      <c r="A76" s="107"/>
       <c r="B76" s="26"/>
       <c r="C76" s="27"/>
       <c r="D76" s="26"/>
@@ -5015,81 +5014,81 @@
       <c r="E115" s="18"/>
     </row>
     <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="139"/>
-      <c r="B116" s="160"/>
+      <c r="A116" s="107"/>
+      <c r="B116" s="108"/>
       <c r="C116" s="24"/>
-      <c r="D116" s="139"/>
-      <c r="E116" s="139"/>
+      <c r="D116" s="107"/>
+      <c r="E116" s="107"/>
     </row>
     <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="139"/>
-      <c r="B117" s="139"/>
+      <c r="A117" s="107"/>
+      <c r="B117" s="107"/>
       <c r="C117" s="24"/>
-      <c r="D117" s="139"/>
-      <c r="E117" s="139"/>
+      <c r="D117" s="107"/>
+      <c r="E117" s="107"/>
     </row>
     <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="139"/>
-      <c r="B118" s="160"/>
+      <c r="A118" s="107"/>
+      <c r="B118" s="108"/>
       <c r="C118" s="24"/>
-      <c r="D118" s="139"/>
-      <c r="E118" s="139"/>
+      <c r="D118" s="107"/>
+      <c r="E118" s="107"/>
     </row>
     <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="139"/>
-      <c r="B119" s="139"/>
+      <c r="A119" s="107"/>
+      <c r="B119" s="107"/>
       <c r="C119" s="24"/>
-      <c r="D119" s="139"/>
-      <c r="E119" s="139"/>
+      <c r="D119" s="107"/>
+      <c r="E119" s="107"/>
     </row>
     <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="139"/>
-      <c r="B120" s="139"/>
+      <c r="A120" s="107"/>
+      <c r="B120" s="107"/>
       <c r="C120" s="24"/>
-      <c r="D120" s="139"/>
-      <c r="E120" s="139"/>
+      <c r="D120" s="107"/>
+      <c r="E120" s="107"/>
     </row>
     <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="139"/>
-      <c r="B121" s="160"/>
+      <c r="A121" s="107"/>
+      <c r="B121" s="108"/>
       <c r="C121" s="24"/>
-      <c r="D121" s="139"/>
-      <c r="E121" s="139"/>
+      <c r="D121" s="107"/>
+      <c r="E121" s="107"/>
     </row>
     <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="139"/>
-      <c r="B122" s="139"/>
+      <c r="A122" s="107"/>
+      <c r="B122" s="107"/>
       <c r="C122" s="24"/>
-      <c r="D122" s="139"/>
-      <c r="E122" s="139"/>
+      <c r="D122" s="107"/>
+      <c r="E122" s="107"/>
     </row>
     <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="139"/>
-      <c r="B123" s="160"/>
+      <c r="A123" s="107"/>
+      <c r="B123" s="108"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="139"/>
-      <c r="E123" s="139"/>
+      <c r="D123" s="107"/>
+      <c r="E123" s="107"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="139"/>
-      <c r="B124" s="139"/>
+      <c r="A124" s="107"/>
+      <c r="B124" s="107"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="139"/>
-      <c r="E124" s="139"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="107"/>
     </row>
     <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="139"/>
-      <c r="B125" s="139"/>
+      <c r="A125" s="107"/>
+      <c r="B125" s="107"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="139"/>
-      <c r="E125" s="139"/>
+      <c r="D125" s="107"/>
+      <c r="E125" s="107"/>
     </row>
     <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
       <c r="B126" s="30"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="139"/>
-      <c r="E126" s="139"/>
+      <c r="D126" s="107"/>
+      <c r="E126" s="107"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33"/>
@@ -6031,6 +6030,52 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:E122"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D123:E125"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A123:A125"/>
@@ -6043,35 +6088,2291 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A55:A57"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D118:E120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:E122"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="D123:E125"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV267"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75.875" style="1" customWidth="1"/>
+    <col min="6" max="256" width="15.125" style="1"/>
+    <col min="257" max="16384" width="15.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="161"/>
+    </row>
+    <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="165"/>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+    </row>
+    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="166" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="142"/>
+      <c r="C4" s="167" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+    </row>
+    <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="168" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="169"/>
+      <c r="C5" s="172" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+    </row>
+    <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="142"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+    </row>
+    <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="142"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+    </row>
+    <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+    </row>
+    <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="150"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+    </row>
+    <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+    </row>
+    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="175">
+        <v>1</v>
+      </c>
+      <c r="B17" s="176" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="66">
+        <v>3</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="175"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="66">
+        <v>3</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="175"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="66">
+        <v>3</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="134">
+        <v>2</v>
+      </c>
+      <c r="B21" s="179" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="66">
+        <v>10</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="134"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="66">
+        <v>10</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="134"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="66">
+        <v>8</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="175">
+        <v>3</v>
+      </c>
+      <c r="B24" s="179" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="67">
+        <v>5</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="175"/>
+      <c r="B25" s="179"/>
+      <c r="C25" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="52">
+        <v>5</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="175"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="79">
+        <v>10</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="175">
+        <v>4</v>
+      </c>
+      <c r="B27" s="179" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="75">
+        <v>30</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="186"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="99">
+        <v>20</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="175"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="52">
+        <v>20</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="175">
+        <v>5</v>
+      </c>
+      <c r="B30" s="181" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="52">
+        <v>45</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="175"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="52">
+        <v>30</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="186"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="93">
+        <v>30</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="186"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="52">
+        <v>30</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="186"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="52">
+        <v>20</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="186"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="52">
+        <v>20</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="186"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="52">
+        <v>15</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="186"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="93">
+        <v>10</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="175"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="93">
+        <v>30</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="175"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="95">
+        <v>20</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="187">
+        <v>6</v>
+      </c>
+      <c r="B40" s="190" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="99">
+        <v>10</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="188"/>
+      <c r="B41" s="191"/>
+      <c r="C41" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="77">
+        <v>20</v>
+      </c>
+      <c r="E41" s="96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="188"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="77">
+        <v>20</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="188"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="77">
+        <v>20</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="189"/>
+      <c r="B44" s="192"/>
+      <c r="C44" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="77">
+        <v>15</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="195">
+        <v>7</v>
+      </c>
+      <c r="B45" s="193" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="77">
+        <v>30</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="121"/>
+      <c r="B46" s="194"/>
+      <c r="C46" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="77">
+        <v>30</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="121"/>
+      <c r="B47" s="194"/>
+      <c r="C47" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="77">
+        <v>25</v>
+      </c>
+      <c r="E47" s="98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="175">
+        <v>8</v>
+      </c>
+      <c r="B48" s="179" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="175"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="66">
+        <v>25</v>
+      </c>
+      <c r="E49" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="175"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="66">
+        <v>25</v>
+      </c>
+      <c r="E50" s="56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="175">
+        <v>9</v>
+      </c>
+      <c r="B51" s="178" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="66">
+        <v>0</v>
+      </c>
+      <c r="E51" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="175"/>
+      <c r="B52" s="178"/>
+      <c r="C52" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="66">
+        <v>0</v>
+      </c>
+      <c r="E52" s="56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="134">
+        <v>10</v>
+      </c>
+      <c r="B53" s="178" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="77">
+        <v>20</v>
+      </c>
+      <c r="E53" s="56"/>
+    </row>
+    <row r="54" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="120"/>
+      <c r="B54" s="183"/>
+      <c r="C54" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="77">
+        <v>8</v>
+      </c>
+      <c r="E54" s="78"/>
+    </row>
+    <row r="55" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="74">
+        <v>11</v>
+      </c>
+      <c r="B55" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="74">
+        <v>5</v>
+      </c>
+      <c r="E55" s="80"/>
+    </row>
+    <row r="56" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="87"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="73"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="107"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="107"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="107"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="107"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="26"/>
+    </row>
+    <row r="62" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="107"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="111"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="111"/>
+      <c r="B64" s="184"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="111"/>
+      <c r="B65" s="184"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="111"/>
+      <c r="B66" s="184"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="185"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="21"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="107"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="107"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="107"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="26"/>
+    </row>
+    <row r="76" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="107"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="107"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="107"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="107"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="26"/>
+    </row>
+    <row r="80" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="107"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="107"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="107"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="107"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+    </row>
+    <row r="84" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="73"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+    </row>
+    <row r="85" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="73"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+    </row>
+    <row r="86" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="73"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+    </row>
+    <row r="87" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="73"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+    </row>
+    <row r="88" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="73"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+    </row>
+    <row r="89" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="73"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+    </row>
+    <row r="90" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="73"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+    </row>
+    <row r="91" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="36"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+    </row>
+    <row r="92" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="36"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+    </row>
+    <row r="93" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="36"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+    </row>
+    <row r="94" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="36"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+    </row>
+    <row r="95" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="36"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+    </row>
+    <row r="96" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="36"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+    </row>
+    <row r="97" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="36"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+    </row>
+    <row r="98" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="36"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+    </row>
+    <row r="99" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="36"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+    </row>
+    <row r="100" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="36"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+    </row>
+    <row r="101" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="36"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+    </row>
+    <row r="102" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="36"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+    </row>
+    <row r="103" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="36"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+    </row>
+    <row r="104" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="36"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+    </row>
+    <row r="105" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="36"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+    </row>
+    <row r="106" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="36"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+    </row>
+    <row r="107" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="38"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+    </row>
+    <row r="108" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="31"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+    </row>
+    <row r="109" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="32"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+    </row>
+    <row r="110" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="36"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+    </row>
+    <row r="111" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="36"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+    </row>
+    <row r="112" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="36"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+    </row>
+    <row r="113" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="36"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+    </row>
+    <row r="114" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="36"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+    </row>
+    <row r="115" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="36"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+    </row>
+    <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="36"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+    </row>
+    <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="36"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+    </row>
+    <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="36"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+    </row>
+    <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+    </row>
+    <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+    </row>
+    <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+    </row>
+    <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="36"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+    </row>
+    <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="107"/>
+      <c r="B123" s="108"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="107"/>
+      <c r="E123" s="107"/>
+    </row>
+    <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="107"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="107"/>
+    </row>
+    <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="107"/>
+      <c r="B125" s="108"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="107"/>
+      <c r="E125" s="107"/>
+    </row>
+    <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="107"/>
+      <c r="B126" s="107"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="107"/>
+      <c r="E126" s="107"/>
+    </row>
+    <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="107"/>
+      <c r="B127" s="107"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="107"/>
+      <c r="E127" s="107"/>
+    </row>
+    <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="107"/>
+      <c r="B128" s="108"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="107"/>
+      <c r="E128" s="107"/>
+    </row>
+    <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="107"/>
+      <c r="B129" s="107"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="107"/>
+      <c r="E129" s="107"/>
+    </row>
+    <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="107"/>
+      <c r="B130" s="108"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="107"/>
+      <c r="E130" s="107"/>
+    </row>
+    <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="107"/>
+      <c r="B131" s="107"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="107"/>
+      <c r="E131" s="107"/>
+    </row>
+    <row r="132" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="107"/>
+      <c r="B132" s="107"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="107"/>
+      <c r="E132" s="107"/>
+    </row>
+    <row r="133" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="36"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="107"/>
+      <c r="E133" s="107"/>
+    </row>
+    <row r="134" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="33"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="26"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="26"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="26"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="26"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="27"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="26"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="26"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="26"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="27"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="27"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="26"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="27"/>
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="27"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="27"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="27"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="26"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="27"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="27"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
+      <c r="C234" s="27"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="27"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="26"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="27"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="26"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="27"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="26"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="26"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="27"/>
+      <c r="D238" s="26"/>
+      <c r="E238" s="26"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="27"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="27"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="27"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="27"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="26"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="27"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="27"/>
+      <c r="D244" s="26"/>
+      <c r="E244" s="26"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
+      <c r="C245" s="27"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="26"/>
+      <c r="B246" s="26"/>
+      <c r="C246" s="27"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="27"/>
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="27"/>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="27"/>
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="26"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="27"/>
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="27"/>
+      <c r="D251" s="26"/>
+      <c r="E251" s="26"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="27"/>
+      <c r="D252" s="26"/>
+      <c r="E252" s="26"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="27"/>
+      <c r="D253" s="26"/>
+      <c r="E253" s="26"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="27"/>
+      <c r="D254" s="26"/>
+      <c r="E254" s="26"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="27"/>
+      <c r="D255" s="26"/>
+      <c r="E255" s="26"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="27"/>
+      <c r="D256" s="26"/>
+      <c r="E256" s="26"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="27"/>
+      <c r="D257" s="26"/>
+      <c r="E257" s="26"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
+      <c r="C258" s="27"/>
+      <c r="D258" s="26"/>
+      <c r="E258" s="26"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="26"/>
+      <c r="B259" s="26"/>
+      <c r="C259" s="27"/>
+      <c r="D259" s="26"/>
+      <c r="E259" s="26"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="26"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="27"/>
+      <c r="D260" s="26"/>
+      <c r="E260" s="26"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="26"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="27"/>
+      <c r="D261" s="26"/>
+      <c r="E261" s="26"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="26"/>
+      <c r="B262" s="26"/>
+      <c r="C262" s="27"/>
+      <c r="D262" s="26"/>
+      <c r="E262" s="26"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="27"/>
+      <c r="D263" s="26"/>
+      <c r="E263" s="26"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="26"/>
+      <c r="B264" s="26"/>
+      <c r="C264" s="27"/>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="26"/>
+      <c r="B265" s="26"/>
+      <c r="C265" s="27"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="26"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="26"/>
+      <c r="B266" s="26"/>
+      <c r="C266" s="27"/>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="26"/>
+      <c r="B267" s="26"/>
+      <c r="C267" s="27"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
     <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D130:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D123:E124"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="D125:E127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="D128:E129"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="B73:B81"/>
     <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
@@ -6096,2308 +8397,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV267"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="75.875" style="1" customWidth="1"/>
-    <col min="6" max="256" width="15.125" style="1"/>
-    <col min="257" max="16384" width="15.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="106"/>
-    </row>
-    <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="110"/>
-    </row>
-    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-    </row>
-    <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="120" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-    </row>
-    <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-    </row>
-    <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-    </row>
-    <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-    </row>
-    <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-    </row>
-    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-    </row>
-    <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-    </row>
-    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="175">
-        <v>1</v>
-      </c>
-      <c r="B17" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="175"/>
-      <c r="B18" s="195"/>
-      <c r="C18" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="66">
-        <v>3</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="66">
-        <v>3</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="175"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="66">
-        <v>3</v>
-      </c>
-      <c r="E20" s="76" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="148">
-        <v>2</v>
-      </c>
-      <c r="B21" s="176" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="66">
-        <v>10</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="66">
-        <v>10</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="66">
-        <v>8</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="175">
-        <v>3</v>
-      </c>
-      <c r="B24" s="176" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="67">
-        <v>5</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="175"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="52">
-        <v>5</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="175"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="79">
-        <v>10</v>
-      </c>
-      <c r="E26" s="80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="175">
-        <v>4</v>
-      </c>
-      <c r="B27" s="176" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="75">
-        <v>30</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="183"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="99">
-        <v>20</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="175"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="52">
-        <v>20</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="175">
-        <v>5</v>
-      </c>
-      <c r="B30" s="190" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="52">
-        <v>45</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="175"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="52">
-        <v>30</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="183"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="93">
-        <v>30</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="183"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="52">
-        <v>30</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="183"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="52">
-        <v>20</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="183"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="52">
-        <v>20</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="183"/>
-      <c r="B36" s="191"/>
-      <c r="C36" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="52">
-        <v>15</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="183"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="102" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="93">
-        <v>10</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="175"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="93">
-        <v>30</v>
-      </c>
-      <c r="E38" s="94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="175"/>
-      <c r="B39" s="190"/>
-      <c r="C39" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="95">
-        <v>20</v>
-      </c>
-      <c r="E39" s="97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="184">
-        <v>6</v>
-      </c>
-      <c r="B40" s="177" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="99">
-        <v>10</v>
-      </c>
-      <c r="E40" s="97" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="185"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="77">
-        <v>20</v>
-      </c>
-      <c r="E41" s="96" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="185"/>
-      <c r="B42" s="178"/>
-      <c r="C42" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="77">
-        <v>20</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="185"/>
-      <c r="B43" s="178"/>
-      <c r="C43" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="77">
-        <v>20</v>
-      </c>
-      <c r="E43" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="186"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="77">
-        <v>15</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="182">
-        <v>7</v>
-      </c>
-      <c r="B45" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="77">
-        <v>30</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="173"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="77">
-        <v>30</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="173"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="77">
-        <v>25</v>
-      </c>
-      <c r="E47" s="98" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="175">
-        <v>8</v>
-      </c>
-      <c r="B48" s="176" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="175"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="D49" s="66">
-        <v>25</v>
-      </c>
-      <c r="E49" s="56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="175"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="66">
-        <v>25</v>
-      </c>
-      <c r="E50" s="56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="175">
-        <v>9</v>
-      </c>
-      <c r="B51" s="192" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="66">
-        <v>0</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="175"/>
-      <c r="B52" s="192"/>
-      <c r="C52" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="66">
-        <v>0</v>
-      </c>
-      <c r="E52" s="56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="148">
-        <v>10</v>
-      </c>
-      <c r="B53" s="192" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="77">
-        <v>20</v>
-      </c>
-      <c r="E53" s="56"/>
-    </row>
-    <row r="54" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="153"/>
-      <c r="B54" s="193"/>
-      <c r="C54" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="77">
-        <v>8</v>
-      </c>
-      <c r="E54" s="78"/>
-    </row>
-    <row r="55" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="74">
-        <v>11</v>
-      </c>
-      <c r="B55" s="85" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="74">
-        <v>5</v>
-      </c>
-      <c r="E55" s="80"/>
-    </row>
-    <row r="56" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="87"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="26"/>
-    </row>
-    <row r="57" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="73"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="139"/>
-      <c r="B58" s="194"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="139"/>
-      <c r="B59" s="194"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="26"/>
-    </row>
-    <row r="60" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="139"/>
-      <c r="B60" s="194"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="139"/>
-      <c r="B61" s="194"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="26"/>
-    </row>
-    <row r="62" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="139"/>
-      <c r="B62" s="194"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="165"/>
-      <c r="B63" s="187"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="26"/>
-    </row>
-    <row r="64" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="165"/>
-      <c r="B64" s="187"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="26"/>
-    </row>
-    <row r="65" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="165"/>
-      <c r="B65" s="187"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="26"/>
-    </row>
-    <row r="66" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="165"/>
-      <c r="B66" s="187"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="26"/>
-    </row>
-    <row r="67" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="26"/>
-    </row>
-    <row r="68" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="188"/>
-      <c r="B68" s="163"/>
-      <c r="C68" s="163"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="26"/>
-    </row>
-    <row r="69" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="26"/>
-    </row>
-    <row r="70" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="26"/>
-    </row>
-    <row r="71" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="26"/>
-    </row>
-    <row r="72" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="26"/>
-    </row>
-    <row r="73" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="139"/>
-      <c r="B73" s="163"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="26"/>
-    </row>
-    <row r="74" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="139"/>
-      <c r="B74" s="163"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="26"/>
-    </row>
-    <row r="75" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="139"/>
-      <c r="B75" s="163"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="26"/>
-    </row>
-    <row r="76" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="139"/>
-      <c r="B76" s="163"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="26"/>
-    </row>
-    <row r="77" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="139"/>
-      <c r="B77" s="163"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="26"/>
-    </row>
-    <row r="78" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="139"/>
-      <c r="B78" s="163"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="26"/>
-    </row>
-    <row r="79" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="139"/>
-      <c r="B79" s="163"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="26"/>
-    </row>
-    <row r="80" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="139"/>
-      <c r="B80" s="163"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="26"/>
-    </row>
-    <row r="81" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="139"/>
-      <c r="B81" s="163"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="26"/>
-    </row>
-    <row r="82" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="139"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-    </row>
-    <row r="83" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="139"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-    </row>
-    <row r="84" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="73"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-    </row>
-    <row r="85" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="73"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-    </row>
-    <row r="86" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="73"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-    </row>
-    <row r="87" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="73"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-    </row>
-    <row r="88" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="73"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-    </row>
-    <row r="89" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="73"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-    </row>
-    <row r="90" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="73"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-    </row>
-    <row r="91" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="36"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-    </row>
-    <row r="92" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="36"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-    </row>
-    <row r="93" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="36"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-    </row>
-    <row r="94" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="36"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-    </row>
-    <row r="95" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="36"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-    </row>
-    <row r="96" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="36"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-    </row>
-    <row r="97" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="36"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-    </row>
-    <row r="98" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="36"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-    </row>
-    <row r="99" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="36"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-    </row>
-    <row r="100" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="36"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-    </row>
-    <row r="101" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="36"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-    </row>
-    <row r="102" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="36"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-    </row>
-    <row r="103" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-    </row>
-    <row r="104" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="36"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-    </row>
-    <row r="105" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="36"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-    </row>
-    <row r="106" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="36"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-    </row>
-    <row r="107" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="38"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-    </row>
-    <row r="108" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="31"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-    </row>
-    <row r="109" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="32"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-    </row>
-    <row r="110" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="36"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-    </row>
-    <row r="111" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="36"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-    </row>
-    <row r="112" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="36"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-    </row>
-    <row r="113" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-    </row>
-    <row r="114" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="36"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-    </row>
-    <row r="115" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-    </row>
-    <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="36"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-    </row>
-    <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="36"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-    </row>
-    <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="36"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-    </row>
-    <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-    </row>
-    <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-    </row>
-    <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-    </row>
-    <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="36"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-    </row>
-    <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="139"/>
-      <c r="B123" s="160"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="139"/>
-      <c r="E123" s="139"/>
-    </row>
-    <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="139"/>
-      <c r="B124" s="139"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="139"/>
-      <c r="E124" s="139"/>
-    </row>
-    <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="139"/>
-      <c r="B125" s="160"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="139"/>
-      <c r="E125" s="139"/>
-    </row>
-    <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="139"/>
-      <c r="B126" s="139"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="139"/>
-      <c r="E126" s="139"/>
-    </row>
-    <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="139"/>
-      <c r="B127" s="139"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="139"/>
-      <c r="E127" s="139"/>
-    </row>
-    <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="139"/>
-      <c r="B128" s="160"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="139"/>
-      <c r="E128" s="139"/>
-    </row>
-    <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="139"/>
-      <c r="B129" s="139"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="139"/>
-      <c r="E129" s="139"/>
-    </row>
-    <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="139"/>
-      <c r="B130" s="160"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="139"/>
-      <c r="E130" s="139"/>
-    </row>
-    <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="139"/>
-      <c r="B131" s="139"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="139"/>
-      <c r="E131" s="139"/>
-    </row>
-    <row r="132" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="139"/>
-      <c r="B132" s="139"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="139"/>
-      <c r="E132" s="139"/>
-    </row>
-    <row r="133" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="36"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="139"/>
-      <c r="E133" s="139"/>
-    </row>
-    <row r="134" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="33"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="26"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="26"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="26"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="26"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="26"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="26"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="26"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="26"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="27"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="26"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="27"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="26"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="27"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="26"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="26"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="26"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="27"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="26"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="27"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="26"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="27"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="27"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="27"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="27"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="27"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="27"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="27"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="27"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="27"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="27"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="26"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="27"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="27"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="26"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="27"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="27"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="27"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="26"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="27"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="26"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="27"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="26"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="27"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="26"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="27"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="26"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="26"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="27"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="26"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="26"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="26"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="27"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="27"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="26"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="27"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="26"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="27"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="26"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="27"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="27"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="26"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="27"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="26"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="26"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="27"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="26"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="27"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="27"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="27"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="26"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="26"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="26"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="26"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="26"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="27"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="26"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="26"/>
-      <c r="E207" s="26"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="26"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="27"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="26"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="27"/>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="26"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="27"/>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="26"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="27"/>
-      <c r="D211" s="26"/>
-      <c r="E211" s="26"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="26"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="27"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="26"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="27"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="26"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="27"/>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="27"/>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="26"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="27"/>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="26"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="27"/>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="26"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="26"/>
-      <c r="B220" s="26"/>
-      <c r="C220" s="27"/>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="26"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="27"/>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="26"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="27"/>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="26"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="27"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="26"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="27"/>
-      <c r="D224" s="26"/>
-      <c r="E224" s="26"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="26"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="27"/>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="27"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="26"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="27"/>
-      <c r="D227" s="26"/>
-      <c r="E227" s="26"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="27"/>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="26"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="27"/>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="27"/>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="27"/>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="26"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="27"/>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="27"/>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="26"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="27"/>
-      <c r="D234" s="26"/>
-      <c r="E234" s="26"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="26"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="27"/>
-      <c r="D235" s="26"/>
-      <c r="E235" s="26"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="26"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="27"/>
-      <c r="D236" s="26"/>
-      <c r="E236" s="26"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="27"/>
-      <c r="D237" s="26"/>
-      <c r="E237" s="26"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="26"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="27"/>
-      <c r="D238" s="26"/>
-      <c r="E238" s="26"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="26"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="27"/>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="27"/>
-      <c r="D240" s="26"/>
-      <c r="E240" s="26"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="26"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="27"/>
-      <c r="D241" s="26"/>
-      <c r="E241" s="26"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="27"/>
-      <c r="D242" s="26"/>
-      <c r="E242" s="26"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="27"/>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="26"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="27"/>
-      <c r="D244" s="26"/>
-      <c r="E244" s="26"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="26"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="27"/>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="26"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="27"/>
-      <c r="D246" s="26"/>
-      <c r="E246" s="26"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="26"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="27"/>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="26"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="27"/>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="26"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="27"/>
-      <c r="D249" s="26"/>
-      <c r="E249" s="26"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="26"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="27"/>
-      <c r="D250" s="26"/>
-      <c r="E250" s="26"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="26"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="27"/>
-      <c r="D251" s="26"/>
-      <c r="E251" s="26"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="26"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="27"/>
-      <c r="D252" s="26"/>
-      <c r="E252" s="26"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
-      <c r="C253" s="27"/>
-      <c r="D253" s="26"/>
-      <c r="E253" s="26"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
-      <c r="C254" s="27"/>
-      <c r="D254" s="26"/>
-      <c r="E254" s="26"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="27"/>
-      <c r="D255" s="26"/>
-      <c r="E255" s="26"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="27"/>
-      <c r="D256" s="26"/>
-      <c r="E256" s="26"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="26"/>
-      <c r="B257" s="26"/>
-      <c r="C257" s="27"/>
-      <c r="D257" s="26"/>
-      <c r="E257" s="26"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="26"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="27"/>
-      <c r="D258" s="26"/>
-      <c r="E258" s="26"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="26"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="27"/>
-      <c r="D259" s="26"/>
-      <c r="E259" s="26"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="26"/>
-      <c r="B260" s="26"/>
-      <c r="C260" s="27"/>
-      <c r="D260" s="26"/>
-      <c r="E260" s="26"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="26"/>
-      <c r="B261" s="26"/>
-      <c r="C261" s="27"/>
-      <c r="D261" s="26"/>
-      <c r="E261" s="26"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="26"/>
-      <c r="B262" s="26"/>
-      <c r="C262" s="27"/>
-      <c r="D262" s="26"/>
-      <c r="E262" s="26"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="26"/>
-      <c r="B263" s="26"/>
-      <c r="C263" s="27"/>
-      <c r="D263" s="26"/>
-      <c r="E263" s="26"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="27"/>
-      <c r="D264" s="26"/>
-      <c r="E264" s="26"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="26"/>
-      <c r="B265" s="26"/>
-      <c r="C265" s="27"/>
-      <c r="D265" s="26"/>
-      <c r="E265" s="26"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="26"/>
-      <c r="B266" s="26"/>
-      <c r="C266" s="27"/>
-      <c r="D266" s="26"/>
-      <c r="E266" s="26"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="26"/>
-      <c r="B267" s="26"/>
-      <c r="C267" s="27"/>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="B73:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="D130:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D123:E124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="D125:E127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="D128:E129"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52457828-D899-4086-AB89-84847A33DC4A}">
   <dimension ref="B129:F136"/>
@@ -8412,7 +8411,7 @@
       <c r="B129" s="175">
         <v>2</v>
       </c>
-      <c r="C129" s="195" t="s">
+      <c r="C129" s="176" t="s">
         <v>164</v>
       </c>
       <c r="D129" s="84" t="s">
@@ -8425,7 +8424,7 @@
     </row>
     <row r="130" spans="2:6" ht="69" x14ac:dyDescent="0.15">
       <c r="B130" s="175"/>
-      <c r="C130" s="195"/>
+      <c r="C130" s="176"/>
       <c r="D130" s="84" t="s">
         <v>125</v>
       </c>
@@ -8436,7 +8435,7 @@
     </row>
     <row r="131" spans="2:6" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B131" s="175"/>
-      <c r="C131" s="195"/>
+      <c r="C131" s="176"/>
       <c r="D131" s="84" t="s">
         <v>126</v>
       </c>
@@ -8447,7 +8446,7 @@
     </row>
     <row r="132" spans="2:6" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B132" s="175"/>
-      <c r="C132" s="195"/>
+      <c r="C132" s="176"/>
       <c r="D132" s="84" t="s">
         <v>127</v>
       </c>
@@ -8457,10 +8456,10 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B133" s="148">
+      <c r="B133" s="134">
         <v>3</v>
       </c>
-      <c r="C133" s="176" t="s">
+      <c r="C133" s="179" t="s">
         <v>163</v>
       </c>
       <c r="D133" s="84" t="s">
@@ -8472,8 +8471,8 @@
       </c>
     </row>
     <row r="134" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B134" s="148"/>
-      <c r="C134" s="176"/>
+      <c r="B134" s="134"/>
+      <c r="C134" s="179"/>
       <c r="D134" s="84" t="s">
         <v>129</v>
       </c>
@@ -8481,8 +8480,8 @@
       <c r="F134" s="197"/>
     </row>
     <row r="135" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B135" s="148"/>
-      <c r="C135" s="176"/>
+      <c r="B135" s="134"/>
+      <c r="C135" s="179"/>
       <c r="D135" s="84" t="s">
         <v>130</v>
       </c>
@@ -8490,8 +8489,8 @@
       <c r="F135" s="197"/>
     </row>
     <row r="136" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B136" s="148"/>
-      <c r="C136" s="176"/>
+      <c r="B136" s="134"/>
+      <c r="C136" s="179"/>
       <c r="D136" s="84" t="s">
         <v>131</v>
       </c>
